--- a/Git桌面-不放大文件/汇报/第十八次汇报/实验/实验一（所有的超参数）/实验一.xlsx
+++ b/Git桌面-不放大文件/汇报/第十八次汇报/实验/实验一（所有的超参数）/实验一.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\Git桌面-不放大文件\汇报\第十八次汇报\实验\实验一（所有的超参数）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121B24CF-26E4-4997-92E9-C900501E554A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1512C829-13DC-4974-9592-1DDCE3D350EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VFPU单独" sheetId="1" r:id="rId1"/>
+    <sheet name="一起比较" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,27 +26,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
   <si>
-    <t>VF-PSG-GM</t>
-  </si>
-  <si>
-    <t>VF-PSG-AR</t>
-  </si>
-  <si>
-    <t>VFPU</t>
+    <t>missing_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>missing_rate</t>
+    <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VFPU-M-Syn</t>
+  </si>
+  <si>
+    <t>VFPU-M-Syn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FedPSG-AG</t>
+  </si>
+  <si>
+    <t>FedPSG-AR</t>
+  </si>
+  <si>
+    <t>FedPSG-CAG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="182" formatCode="0.0_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +86,12 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -81,9 +115,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -366,335 +412,1415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:L2"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1">
+      <c r="C1" s="5">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="E1" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G1" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H1" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="I1" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J1" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="K1" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="L1" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M1" s="5">
         <v>1</v>
       </c>
-      <c r="E1" s="1">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="B2" s="1">
         <v>0.2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" s="1">
-        <v>0.46150000000000002</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.43020000000000003</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.42649999999999999</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.38319999999999999</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.28210000000000002</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.25180000000000002</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.28760000000000002</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.35880000000000001</v>
+        <v>0.47545999999999999</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.3775</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.28749999999999998</v>
       </c>
       <c r="K2" s="1">
-        <v>0.436</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.436</v>
+        <v>0.39122499999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.39821249999999997</v>
       </c>
       <c r="M2" s="1">
         <v>0.436</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.51205999999999996</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.47560000000000002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.2424</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.4395</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.44805</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.48559999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.53259999999999996</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.49859999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.42509999999999998</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.33310000000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.25629999999999997</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.46155000000000002</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.47092500000000004</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.51659999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7</v>
+      </c>
+      <c r="K6" s="1">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9</v>
+      </c>
+      <c r="M6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>0.2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C7" s="4">
+        <v>0.51319999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.4022</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.34870000000000001</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.41870000000000002</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0.43680000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.54059999999999997</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.436</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.3906</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.38879999999999998</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.3745</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.45860000000000001</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.46989999999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.43440000000000001</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.4153</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.4481</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.51659999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FA76C8-2FDC-41FF-AFDA-B047A5A12857}">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1">
         <v>2</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.434</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.40479999999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.30669999999999997</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.42259999999999998</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.42259999999999998</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.42259999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.43020000000000003</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.38319999999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.25180000000000002</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.35880000000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.436</v>
       </c>
       <c r="M3" s="1">
         <v>0.436</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="N3" s="1">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
         <v>0.2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.47545999999999999</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.44219999999999998</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.3775</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.39122499999999999</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.39821249999999997</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.38069999999999998</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.3614</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.2782</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.2369</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.2177</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.25359999999999999</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.25359999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.25359999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.49809999999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.48259999999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.45169999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.31190000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.4708</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.4708</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.4708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.49809999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.4753</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.46510000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.43169999999999997</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.33779999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.38640000000000002</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.43509999999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.48559999999999998</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.48559999999999998</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.48559999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.51205999999999996</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.47560000000000002</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.2424</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.4395</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.44805</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.48559999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.49809999999999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.40050000000000002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.33279999999999998</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.2087</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.2258</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.27710000000000001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.3029</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.3029</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.3029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.50070000000000003</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.4536</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.4521</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.42170000000000002</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.44640000000000002</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.53010000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.50380000000000003</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.44850000000000001</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.44359999999999999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.44009999999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.39610000000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.51659999999999995</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.51659999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.53259999999999996</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.49859999999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.42509999999999998</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.33310000000000001</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0.25629999999999997</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.32640000000000002</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.46155000000000002</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.47092500000000004</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.51659999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.42959999999999998</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.37459999999999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.23619999999999999</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.28870000000000001</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.39860000000000001</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.39860000000000001</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.39860000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.46150000000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.38069999999999998</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.3614</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.31419999999999998</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.2782</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.20569999999999999</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.2369</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.2177</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.25359999999999999</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.25359999999999999</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.25359999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
+      <c r="J15" s="2">
+        <v>6</v>
+      </c>
+      <c r="K15" s="1">
+        <v>7</v>
+      </c>
+      <c r="L15" s="1">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1">
+        <v>9</v>
+      </c>
+      <c r="N15" s="1">
+        <v>10</v>
+      </c>
+      <c r="O15" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.50480000000000003</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.42409999999999998</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.41770000000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.3493</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.35089999999999999</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.3604</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.38579999999999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.39860000000000001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.4168</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.43680000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.51319999999999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.49370000000000003</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.4022</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.34870000000000001</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.35370000000000001</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0.41870000000000002</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.43680000000000002</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.43680000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.50480000000000003</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.38440000000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.35949999999999999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.35110000000000002</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.3478</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.37840000000000001</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.40310000000000001</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.54359999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
         <v>0.5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.49809999999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.4753</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.46510000000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.43169999999999997</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.35120000000000001</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.33779999999999999</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.38640000000000002</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.43509999999999999</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.48559999999999998</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.48559999999999998</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.48559999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.44359999999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.4289</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.39860000000000001</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.38150000000000001</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.43580000000000002</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.47139999999999999</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
         <v>0.5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="1">
-        <v>0.48559999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="D20" s="4">
+        <v>0.54059999999999997</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.436</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.3906</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.38879999999999998</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.3745</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.45860000000000001</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
         <v>0.5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.49809999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.45450000000000002</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.40050000000000002</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.33279999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.31390000000000001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.2087</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.2258</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.27710000000000001</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.3029</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.3029</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.3029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.40089999999999998</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.41789999999999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.40010000000000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.3674</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.38840000000000002</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.39539999999999997</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.57450000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
         <v>0.8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.50380000000000003</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.44850000000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.44359999999999999</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.44009999999999999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.39610000000000001</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.48970000000000002</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.5504</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.54020000000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.48659999999999998</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.56020000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.46989999999999998</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.43440000000000001</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.4153</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.4481</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="N23" s="1">
         <v>0.51659999999999995</v>
       </c>
-      <c r="L8" s="1">
+      <c r="O23" s="1">
         <v>0.51659999999999995</v>
       </c>
-      <c r="M8" s="1">
-        <v>0.51659999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
         <v>0.8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0.51659999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.47699999999999998</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.42959999999999998</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.37459999999999999</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.33560000000000001</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.24010000000000001</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.23619999999999999</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.28870000000000001</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.39860000000000001</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.39860000000000001</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0.39860000000000001</v>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.47089999999999999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.45729999999999998</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.4597</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.46329999999999999</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.4723</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.53910000000000002</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0.60429999999999995</v>
       </c>
     </row>
   </sheetData>
